--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.494342351814</v>
+        <v>29.07024133333333</v>
       </c>
       <c r="H2">
-        <v>14.494342351814</v>
+        <v>87.210724</v>
       </c>
       <c r="I2">
-        <v>0.2641503778691442</v>
+        <v>0.4171675701339755</v>
       </c>
       <c r="J2">
-        <v>0.2641503778691442</v>
+        <v>0.4171675701339755</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>156.12825178649</v>
+        <v>612.8534110343649</v>
       </c>
       <c r="R2">
-        <v>156.12825178649</v>
+        <v>5515.680699309284</v>
       </c>
       <c r="S2">
-        <v>0.008039185477655178</v>
+        <v>0.02384554921840408</v>
       </c>
       <c r="T2">
-        <v>0.008039185477655178</v>
+        <v>0.02384554921840407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.494342351814</v>
+        <v>29.07024133333333</v>
       </c>
       <c r="H3">
-        <v>14.494342351814</v>
+        <v>87.210724</v>
       </c>
       <c r="I3">
-        <v>0.2641503778691442</v>
+        <v>0.4171675701339755</v>
       </c>
       <c r="J3">
-        <v>0.2641503778691442</v>
+        <v>0.4171675701339755</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>4317.003574240978</v>
+        <v>8767.589107909211</v>
       </c>
       <c r="R3">
-        <v>4317.003574240978</v>
+        <v>78908.3019711829</v>
       </c>
       <c r="S3">
-        <v>0.2222864346709264</v>
+        <v>0.341138637454152</v>
       </c>
       <c r="T3">
-        <v>0.2222864346709264</v>
+        <v>0.341138637454152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.494342351814</v>
+        <v>29.07024133333333</v>
       </c>
       <c r="H4">
-        <v>14.494342351814</v>
+        <v>87.210724</v>
       </c>
       <c r="I4">
-        <v>0.2641503778691442</v>
+        <v>0.4171675701339755</v>
       </c>
       <c r="J4">
-        <v>0.2641503778691442</v>
+        <v>0.4171675701339755</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>656.9073825565417</v>
+        <v>1341.162841783586</v>
       </c>
       <c r="R4">
-        <v>656.9073825565417</v>
+        <v>12070.46557605228</v>
       </c>
       <c r="S4">
-        <v>0.03382475772056263</v>
+        <v>0.05218338346141948</v>
       </c>
       <c r="T4">
-        <v>0.03382475772056263</v>
+        <v>0.05218338346141947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1006647095643</v>
+        <v>28.10308133333334</v>
       </c>
       <c r="H5">
-        <v>28.1006647095643</v>
+        <v>84.30924400000001</v>
       </c>
       <c r="I5">
-        <v>0.5121171434505655</v>
+        <v>0.4032885045113541</v>
       </c>
       <c r="J5">
-        <v>0.5121171434505655</v>
+        <v>0.4032885045113541</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>302.6910465236464</v>
+        <v>592.4639241285116</v>
       </c>
       <c r="R5">
-        <v>302.6910465236464</v>
+        <v>5332.175317156604</v>
       </c>
       <c r="S5">
-        <v>0.01558583688464582</v>
+        <v>0.02305221347971425</v>
       </c>
       <c r="T5">
-        <v>0.01558583688464582</v>
+        <v>0.02305221347971425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1006647095643</v>
+        <v>28.10308133333334</v>
       </c>
       <c r="H6">
-        <v>28.1006647095643</v>
+        <v>84.30924400000001</v>
       </c>
       <c r="I6">
-        <v>0.5121171434505655</v>
+        <v>0.4032885045113541</v>
       </c>
       <c r="J6">
-        <v>0.5121171434505655</v>
+        <v>0.4032885045113541</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>8369.518743605095</v>
+        <v>8475.893508124758</v>
       </c>
       <c r="R6">
-        <v>8369.518743605095</v>
+        <v>76283.04157312283</v>
       </c>
       <c r="S6">
-        <v>0.430954121170625</v>
+        <v>0.3297890362995913</v>
       </c>
       <c r="T6">
-        <v>0.430954121170625</v>
+        <v>0.3297890362995913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1006647095643</v>
+        <v>28.10308133333334</v>
       </c>
       <c r="H7">
-        <v>28.1006647095643</v>
+        <v>84.30924400000001</v>
       </c>
       <c r="I7">
-        <v>0.5121171434505655</v>
+        <v>0.4032885045113541</v>
       </c>
       <c r="J7">
-        <v>0.5121171434505655</v>
+        <v>0.4032885045113541</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>1273.568241621436</v>
+        <v>1296.542673715973</v>
       </c>
       <c r="R7">
-        <v>1273.568241621436</v>
+        <v>11668.88406344376</v>
       </c>
       <c r="S7">
-        <v>0.06557718539529458</v>
+        <v>0.05044725473204855</v>
       </c>
       <c r="T7">
-        <v>0.06557718539529458</v>
+        <v>0.05044725473204855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.276549317747</v>
+        <v>12.51148366666667</v>
       </c>
       <c r="H8">
-        <v>12.276549317747</v>
+        <v>37.534451</v>
       </c>
       <c r="I8">
-        <v>0.2237324786802903</v>
+        <v>0.1795439253546705</v>
       </c>
       <c r="J8">
-        <v>0.2237324786802903</v>
+        <v>0.1795439253546705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>132.2389202922742</v>
+        <v>263.7647673542102</v>
       </c>
       <c r="R8">
-        <v>132.2389202922742</v>
+        <v>2373.882906187891</v>
       </c>
       <c r="S8">
-        <v>0.00680910210311112</v>
+        <v>0.01026283876173619</v>
       </c>
       <c r="T8">
-        <v>0.00680910210311112</v>
+        <v>0.01026283876173618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.276549317747</v>
+        <v>12.51148366666667</v>
       </c>
       <c r="H9">
-        <v>12.276549317747</v>
+        <v>37.534451</v>
       </c>
       <c r="I9">
-        <v>0.2237324786802903</v>
+        <v>0.1795439253546705</v>
       </c>
       <c r="J9">
-        <v>0.2237324786802903</v>
+        <v>0.1795439253546705</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>3656.454773708766</v>
+        <v>3773.465333907239</v>
       </c>
       <c r="R9">
-        <v>3656.454773708766</v>
+        <v>33961.18800516515</v>
       </c>
       <c r="S9">
-        <v>0.1882741770317193</v>
+        <v>0.146821983403436</v>
       </c>
       <c r="T9">
-        <v>0.1882741770317193</v>
+        <v>0.146821983403436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.276549317747</v>
+        <v>12.51148366666667</v>
       </c>
       <c r="H10">
-        <v>12.276549317747</v>
+        <v>37.534451</v>
       </c>
       <c r="I10">
-        <v>0.2237324786802903</v>
+        <v>0.1795439253546705</v>
       </c>
       <c r="J10">
-        <v>0.2237324786802903</v>
+        <v>0.1795439253546705</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>556.3933625548856</v>
+        <v>577.2204226620889</v>
       </c>
       <c r="R10">
-        <v>556.3933625548856</v>
+        <v>5194.9838039588</v>
       </c>
       <c r="S10">
-        <v>0.02864919954545996</v>
+        <v>0.02245910318949835</v>
       </c>
       <c r="T10">
-        <v>0.02864919954545996</v>
+        <v>0.02245910318949835</v>
       </c>
     </row>
   </sheetData>
